--- a/clueLayout.xlsx
+++ b/clueLayout.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\clueLayout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colemanhoyt/Documents/Mines/clueLayout/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11475"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24000" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hi, Ebenezer!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,149 +350,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>

--- a/clueLayout.xlsx
+++ b/clueLayout.xlsx
@@ -30,11 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hi, Ebenezer!</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -372,85 +368,82 @@
     <col min="13" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
